--- a/course-2-2/it/lab2/main.xlsx
+++ b/course-2-2/it/lab2/main.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USer\Desktop\university\course-2-2\it\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53AE5D6-7C2B-4BED-9971-33F0BF98A0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D3F26-46B2-4374-8F46-EFB084E4266A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -164,16 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3064,7 +3064,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3097,7 +3097,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3148,6 +3148,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="729249088"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -9862,6 +9863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -9929,6 +9931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E699789-1251-4BED-A8BF-2785A6DEF6F4}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9989,6 +9992,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE365749-458E-4DA7-A2D5-8DDD1C1D753B}">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10002,16 +10006,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10168,30 +10172,30 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1">
         <f>K6*10 + L6</f>
         <v>100.40243902439028</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1">
         <f xml:space="preserve"> (100 - L6) / K6</f>
         <v>9.9657564172583282</v>
@@ -10210,6 +10214,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC4571-92AA-4E49-9EFB-2FE2449154B7}">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10317,13 +10322,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
@@ -10337,13 +10342,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>61.2</v>
       </c>
       <c r="F7" s="1" t="e">
@@ -10357,90 +10362,90 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>50</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>33.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>12.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>43.6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>50</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>100</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>20</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>28.3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>50</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>15.6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>100</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>5.7</v>
       </c>
     </row>
@@ -10453,72 +10458,72 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <f>$H$2 * ($G$2^A19) * ($F$2^B19)</f>
         <v>99.709066060024995</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <f>$H$2 * ($G$2^A20) * ($F$2^B20)</f>
         <v>91.537215839264888</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <f>$H$2 * ($G$2^A21) * ($F$2^B21)</f>
         <v>77.147845148906924</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>200</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <f>$H$2 * ($G$2^A22) * ($F$2^B22)</f>
         <v>1.8126444481975106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>200</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <f>$H$2 * ($G$2^A23) * ($F$2^B23)</f>
         <v>1.6640856508937112</v>
       </c>
@@ -10530,10 +10535,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F6EB8-FC9A-4C9D-9C78-B9599632E8E5}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10551,14 +10557,14 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>15</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <v>20</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="2">
         <v>25</v>
       </c>
       <c r="M1" t="s">
@@ -10575,22 +10581,22 @@
       <c r="C2" s="1">
         <v>2.8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <f>ROUND(C11, 1)</f>
         <v>3.3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <f>ROUND(C18, 1)</f>
         <v>3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <f>ROUND(C25, 1)</f>
         <v>2.8</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>15</v>
       </c>
       <c r="N2" s="1">
@@ -10613,18 +10619,18 @@
       <c r="C3" s="1">
         <v>3.3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>105</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F8" si="0">ROUND(C12, 1)</f>
         <v>3.3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G8" si="1">ROUND(C19, 1)</f>
         <v>3.1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H8" si="2">ROUND(C26, 1)</f>
         <v>2.8</v>
       </c>
@@ -10654,18 +10660,18 @@
       <c r="C4" s="1">
         <v>2.8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>110</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
@@ -10692,28 +10698,28 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>115</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>0.89280631028529411</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>0.89859669712179313</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>0.94342872623515683</v>
       </c>
       <c r="P5">
@@ -10730,18 +10736,18 @@
       <c r="C6" s="1">
         <v>3.3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>120</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -10756,18 +10762,18 @@
       <c r="C7" s="1">
         <v>3.2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>125</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -10782,18 +10788,18 @@
       <c r="C8" s="1">
         <v>3.3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>130</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
@@ -11052,10 +11058,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE99FF9F-22AD-48E5-882B-CDE856535255}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/course-2-2/it/lab2/main.xlsx
+++ b/course-2-2/it/lab2/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USer\Desktop\university\course-2-2\it\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D3F26-46B2-4374-8F46-EFB084E4266A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C7923A-C97B-48BF-9D45-868D742E970A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Год</t>
   </si>
@@ -98,19 +98,54 @@
     <t>Параметры аппроксимирующего уравнения</t>
   </si>
   <si>
-    <t>График</t>
+    <t>x1 (Площадь, кв.м)</t>
+  </si>
+  <si>
+    <t>x2 (Количество офисов)</t>
+  </si>
+  <si>
+    <t>x3 (Количество входов)</t>
+  </si>
+  <si>
+    <t>x4 (Время эксплуатации, лет)</t>
+  </si>
+  <si>
+    <t>y (Цена)</t>
+  </si>
+  <si>
+    <t>Площадь (x1)</t>
+  </si>
+  <si>
+    <t>Количество офисов (x2)</t>
+  </si>
+  <si>
+    <t>Количество входов (x3)</t>
+  </si>
+  <si>
+    <t>Время эксплуатации (x4)</t>
+  </si>
+  <si>
+    <t>y = 52317,83 + 27,64 ⋅ x1​ + 12529,77 ⋅ x2​ + 2553,21 ⋅ x3​ − 234,24 ⋅ x4​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -167,13 +202,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9487,16 +9527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9523,16 +9563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9561,16 +9601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9867,7 +9907,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9993,10 +10033,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE365749-458E-4DA7-A2D5-8DDD1C1D753B}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10004,20 +10044,20 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -10046,7 +10086,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10082,7 +10122,7 @@
         <v>-1320.5249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -10118,7 +10158,7 @@
         <v>-481.75000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10148,7 +10188,7 @@
         <v>-17.120025673940965</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -10170,32 +10210,45 @@
       <c r="G7" s="1">
         <v>70</v>
       </c>
+      <c r="K7">
+        <f t="array" ref="K7:N7">LOGEST(B6:G6,B7:G7,1,1)</f>
+        <v>1.0199570928776225</v>
+      </c>
+      <c r="L7">
+        <v>1.9066934871077674</v>
+      </c>
+      <c r="M7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="1">
         <f>K6*10 + L6</f>
         <v>100.40243902439028</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1">
         <f xml:space="preserve"> (100 - L6) / K6</f>
         <v>9.9657564172583282</v>
@@ -10218,7 +10271,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10536,10 +10589,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F6EB8-FC9A-4C9D-9C78-B9599632E8E5}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10547,7 +10600,7 @@
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10571,7 +10624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -10605,11 +10658,8 @@
       <c r="O2" s="1">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -10646,11 +10696,8 @@
         <f t="array" ref="O3:O5">LINEST(H2:H8, E2:E8^{1.2}, TRUE, TRUE)</f>
         <v>3.2290803780121889E-3</v>
       </c>
-      <c r="P3">
-        <v>0.89290000000000003</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>105</v>
       </c>
@@ -10684,11 +10731,8 @@
       <c r="O4" s="1">
         <v>3.5362037814102502E-4</v>
       </c>
-      <c r="P4">
-        <v>0.9083</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>110</v>
       </c>
@@ -10722,11 +10766,8 @@
       <c r="O5" s="4">
         <v>0.94342872623515683</v>
       </c>
-      <c r="P5">
-        <v>0.94869999999999999</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>112</v>
       </c>
@@ -10752,7 +10793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>120</v>
       </c>
@@ -10777,8 +10818,13 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>130</v>
       </c>
@@ -10803,8 +10849,23 @@
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
+      <c r="M8" s="1">
+        <f t="array" ref="M8:N8">LINEST(F2:F8, E2:E8^{1.2}, TRUE, TRUE)</f>
+        <v>2.3050496112902602E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.7146503390472145</v>
+      </c>
+      <c r="O8" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -10814,8 +10875,16 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M10" s="1">
+        <f t="array" ref="M10:N10">LINEST(G2:G8, E2:E8^{1.2}, TRUE, TRUE)</f>
+        <v>2.7639809183878329E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.3353412889602394</v>
+      </c>
+      <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -10826,8 +10895,13 @@
         <f t="array" ref="C11:C31">TREND(C2:C8,A2:B8,A11:B31,1)</f>
         <v>3.2790460772715524</v>
       </c>
+      <c r="M11" s="1">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>105</v>
       </c>
@@ -10837,8 +10911,16 @@
       <c r="C12" s="1">
         <v>3.3197573212126015</v>
       </c>
+      <c r="M12" s="1">
+        <f t="array" ref="M12:N12">LINEST(H2:H8, E2:E8^{1.2}, TRUE, TRUE)</f>
+        <v>3.2290803780121889E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.9684840051076087</v>
+      </c>
+      <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
@@ -10849,7 +10931,7 @@
         <v>3.3604685651536506</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>115</v>
       </c>
@@ -10860,7 +10942,7 @@
         <v>3.4011798090946996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>120</v>
       </c>
@@ -10871,7 +10953,7 @@
         <v>3.4418910530357492</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>125</v>
       </c>
@@ -11059,14 +11141,287 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE99FF9F-22AD-48E5-882B-CDE856535255}">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2310</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>142000</v>
+      </c>
+      <c r="G2">
+        <f t="array" ref="G2:L2">LINEST(E2:E12, A2:D12, TRUE, TRUE)</f>
+        <v>-234.23716447120248</v>
+      </c>
+      <c r="H2">
+        <v>2553.2106603915386</v>
+      </c>
+      <c r="I2">
+        <v>12529.76816708675</v>
+      </c>
+      <c r="J2">
+        <v>27.641387366020282</v>
+      </c>
+      <c r="K2">
+        <v>52317.83050729135</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2333</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2356</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>151000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2379</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2402</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>139000</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2425</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>169000</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2448</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>126000</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2471</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>142900</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2494</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>163000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2517</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2540</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2500</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <f>TREND(E2:E12,A2:D12,A14:D14,1)</f>
+        <v>158261.09563260531</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>